--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookairm1/PycharmProjects/Matrice_Disciplinaire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2AC16E-B173-BA45-852A-15D7E4769489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09716238-2ACD-7246-B7F7-B3454919BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{96B5694C-F753-7C46-A730-FF55F3B13FB1}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{96B5694C-F753-7C46-A730-FF55F3B13FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">APP!$B$1:$B$259</definedName>
     <definedName name="ANNEEES">'[1]RECAP GENERAL'!$C$2:$I$2</definedName>
     <definedName name="CatFaute">#REF!</definedName>
     <definedName name="CatFautes">#REF!</definedName>
@@ -2455,7 +2456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2508,13 +2509,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2980,10 +2978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920FBCE2-ECBC-114F-95CB-CC30D0CF8C32}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B59" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3017,7 +3016,7 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -3059,7 +3058,7 @@
       <c r="O1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="14" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="14" t="s">
@@ -3089,11 +3088,11 @@
       <c r="Y1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" hidden="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -3139,7 +3138,7 @@
       <c r="O2" s="9">
         <v>37592</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="18">
         <v>22</v>
       </c>
       <c r="Q2" s="2" t="s">
@@ -3173,7 +3172,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" hidden="1">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -3219,7 +3218,7 @@
       <c r="O3" s="9">
         <v>43870</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <v>4</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -3253,7 +3252,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" hidden="1">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -3299,7 +3298,7 @@
       <c r="O4" s="9">
         <v>43134</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="18">
         <v>6</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -3333,7 +3332,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" hidden="1">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -3379,7 +3378,7 @@
       <c r="O5" s="9">
         <v>37193</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="18">
         <v>23</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -3413,7 +3412,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" hidden="1">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="O6" s="9">
         <v>44157</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="18">
         <v>4</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -3493,7 +3492,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" hidden="1">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -3539,7 +3538,7 @@
       <c r="O7" s="9">
         <v>41041</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="18">
         <v>12</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -3573,7 +3572,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" hidden="1">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -3619,7 +3618,7 @@
       <c r="O8" s="9">
         <v>44157</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="18">
         <v>4</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -3653,7 +3652,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" hidden="1">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -3699,7 +3698,7 @@
       <c r="O9" s="9">
         <v>41396</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="18">
         <v>11</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -3733,7 +3732,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" hidden="1">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -3779,7 +3778,7 @@
       <c r="O10" s="9">
         <v>42376</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="18">
         <v>8</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -3813,7 +3812,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" hidden="1">
       <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
@@ -3859,7 +3858,7 @@
       <c r="O11" s="9">
         <v>35014</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="18">
         <v>29</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -3893,7 +3892,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" hidden="1">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -3939,7 +3938,7 @@
       <c r="O12" s="9">
         <v>40057</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="18">
         <v>15</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -3973,7 +3972,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" hidden="1">
       <c r="A13" s="2" t="s">
         <v>93</v>
       </c>
@@ -4019,7 +4018,7 @@
       <c r="O13" s="9">
         <v>43536</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="18">
         <v>5</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -4053,7 +4052,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" hidden="1">
       <c r="A14" s="2" t="s">
         <v>97</v>
       </c>
@@ -4099,7 +4098,7 @@
       <c r="O14" s="9">
         <v>44157</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="18">
         <v>4</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -4133,7 +4132,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" hidden="1">
       <c r="A15" s="2" t="s">
         <v>100</v>
       </c>
@@ -4179,7 +4178,7 @@
       <c r="O15" s="9">
         <v>42773</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="18">
         <v>7</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -4213,7 +4212,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" hidden="1">
       <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
@@ -4259,7 +4258,7 @@
       <c r="O16" s="9">
         <v>44157</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="18">
         <v>4</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -4293,7 +4292,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" hidden="1">
       <c r="A17" s="2" t="s">
         <v>106</v>
       </c>
@@ -4339,7 +4338,7 @@
       <c r="O17" s="9">
         <v>35728</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="18">
         <v>27</v>
       </c>
       <c r="Q17" s="2" t="s">
@@ -4373,7 +4372,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" hidden="1">
       <c r="A18" s="2" t="s">
         <v>110</v>
       </c>
@@ -4419,7 +4418,7 @@
       <c r="O18" s="9">
         <v>35339</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="18">
         <v>28</v>
       </c>
       <c r="Q18" s="2" t="s">
@@ -4453,7 +4452,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" hidden="1">
       <c r="A19" s="2" t="s">
         <v>112</v>
       </c>
@@ -4499,7 +4498,7 @@
       <c r="O19" s="9">
         <v>40057</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="18">
         <v>15</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -4533,7 +4532,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" hidden="1">
       <c r="A20" s="2" t="s">
         <v>115</v>
       </c>
@@ -4579,7 +4578,7 @@
       <c r="O20" s="9">
         <v>43536</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="18">
         <v>5</v>
       </c>
       <c r="Q20" s="2" t="s">
@@ -4613,7 +4612,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" hidden="1">
       <c r="A21" s="2" t="s">
         <v>117</v>
       </c>
@@ -4659,7 +4658,7 @@
       <c r="O21" s="9">
         <v>43536</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="18">
         <v>5</v>
       </c>
       <c r="Q21" s="2" t="s">
@@ -4693,7 +4692,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" hidden="1">
       <c r="A22" s="2" t="s">
         <v>122</v>
       </c>
@@ -4739,7 +4738,7 @@
       <c r="O22" s="9">
         <v>39384</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="18">
         <v>17</v>
       </c>
       <c r="Q22" s="2" t="s">
@@ -4773,7 +4772,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" hidden="1">
       <c r="A23" s="2" t="s">
         <v>126</v>
       </c>
@@ -4819,7 +4818,7 @@
       <c r="O23" s="9">
         <v>40434</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P23" s="18">
         <v>14</v>
       </c>
       <c r="Q23" s="2" t="s">
@@ -4853,7 +4852,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" hidden="1">
       <c r="A24" s="2" t="s">
         <v>130</v>
       </c>
@@ -4899,7 +4898,7 @@
       <c r="O24" s="9">
         <v>41825</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="18">
         <v>10</v>
       </c>
       <c r="Q24" s="2" t="s">
@@ -4933,7 +4932,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" hidden="1">
       <c r="A25" s="2" t="s">
         <v>133</v>
       </c>
@@ -4979,7 +4978,7 @@
       <c r="O25" s="9">
         <v>41396</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="18">
         <v>11</v>
       </c>
       <c r="Q25" s="2" t="s">
@@ -5013,7 +5012,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" hidden="1">
       <c r="A26" s="2" t="s">
         <v>136</v>
       </c>
@@ -5059,7 +5058,7 @@
       <c r="O26" s="9">
         <v>43536</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="18">
         <v>5</v>
       </c>
       <c r="Q26" s="2" t="s">
@@ -5093,7 +5092,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" hidden="1">
       <c r="A27" s="2" t="s">
         <v>140</v>
       </c>
@@ -5139,7 +5138,7 @@
       <c r="O27" s="9">
         <v>41041</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="18">
         <v>12</v>
       </c>
       <c r="Q27" s="2" t="s">
@@ -5173,7 +5172,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" hidden="1">
       <c r="A28" s="2" t="s">
         <v>142</v>
       </c>
@@ -5219,7 +5218,7 @@
       <c r="O28" s="9">
         <v>40057</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28" s="18">
         <v>15</v>
       </c>
       <c r="Q28" s="2" t="s">
@@ -5253,7 +5252,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" hidden="1">
       <c r="A29" s="2" t="s">
         <v>144</v>
       </c>
@@ -5299,7 +5298,7 @@
       <c r="O29" s="9">
         <v>40434</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P29" s="18">
         <v>14</v>
       </c>
       <c r="Q29" s="2" t="s">
@@ -5333,7 +5332,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" hidden="1">
       <c r="A30" s="2" t="s">
         <v>148</v>
       </c>
@@ -5379,7 +5378,7 @@
       <c r="O30" s="9">
         <v>41825</v>
       </c>
-      <c r="P30" s="19">
+      <c r="P30" s="18">
         <v>10</v>
       </c>
       <c r="Q30" s="2" t="s">
@@ -5413,7 +5412,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" hidden="1">
       <c r="A31" s="2" t="s">
         <v>151</v>
       </c>
@@ -5459,7 +5458,7 @@
       <c r="O31" s="9">
         <v>43536</v>
       </c>
-      <c r="P31" s="19">
+      <c r="P31" s="18">
         <v>5</v>
       </c>
       <c r="Q31" s="2" t="s">
@@ -5493,7 +5492,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" hidden="1">
       <c r="A32" s="2" t="s">
         <v>153</v>
       </c>
@@ -5539,7 +5538,7 @@
       <c r="O32" s="9">
         <v>44157</v>
       </c>
-      <c r="P32" s="19">
+      <c r="P32" s="18">
         <v>4</v>
       </c>
       <c r="Q32" s="2" t="s">
@@ -5573,7 +5572,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" hidden="1">
       <c r="A33" s="2" t="s">
         <v>156</v>
       </c>
@@ -5619,7 +5618,7 @@
       <c r="O33" s="9">
         <v>44157</v>
       </c>
-      <c r="P33" s="19">
+      <c r="P33" s="18">
         <v>4</v>
       </c>
       <c r="Q33" s="2" t="s">
@@ -5653,7 +5652,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" hidden="1">
       <c r="A34" s="2" t="s">
         <v>158</v>
       </c>
@@ -5699,7 +5698,7 @@
       <c r="O34" s="9">
         <v>44157</v>
       </c>
-      <c r="P34" s="19">
+      <c r="P34" s="18">
         <v>4</v>
       </c>
       <c r="Q34" s="2" t="s">
@@ -5733,7 +5732,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" hidden="1">
       <c r="A35" s="2" t="s">
         <v>160</v>
       </c>
@@ -5779,7 +5778,7 @@
       <c r="O35" s="9">
         <v>44157</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P35" s="18">
         <v>4</v>
       </c>
       <c r="Q35" s="2" t="s">
@@ -5813,7 +5812,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" hidden="1">
       <c r="A36" s="2" t="s">
         <v>162</v>
       </c>
@@ -5859,7 +5858,7 @@
       <c r="O36" s="9">
         <v>37950</v>
       </c>
-      <c r="P36" s="19">
+      <c r="P36" s="18">
         <v>21</v>
       </c>
       <c r="Q36" s="2" t="s">
@@ -5893,7 +5892,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" hidden="1">
       <c r="A37" s="2" t="s">
         <v>164</v>
       </c>
@@ -5939,7 +5938,7 @@
       <c r="O37" s="9">
         <v>41396</v>
       </c>
-      <c r="P37" s="19">
+      <c r="P37" s="18">
         <v>11</v>
       </c>
       <c r="Q37" s="2" t="s">
@@ -5973,7 +5972,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" hidden="1">
       <c r="A38" s="2" t="s">
         <v>169</v>
       </c>
@@ -6019,7 +6018,7 @@
       <c r="O38" s="9">
         <v>37193</v>
       </c>
-      <c r="P38" s="19">
+      <c r="P38" s="18">
         <v>23</v>
       </c>
       <c r="Q38" s="2" t="s">
@@ -6053,7 +6052,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" hidden="1">
       <c r="A39" s="2" t="s">
         <v>173</v>
       </c>
@@ -6099,7 +6098,7 @@
       <c r="O39" s="9">
         <v>35728</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P39" s="18">
         <v>27</v>
       </c>
       <c r="Q39" s="2" t="s">
@@ -6133,7 +6132,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" hidden="1">
       <c r="A40" s="2" t="s">
         <v>177</v>
       </c>
@@ -6179,7 +6178,7 @@
       <c r="O40" s="9">
         <v>42773</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P40" s="18">
         <v>7</v>
       </c>
       <c r="Q40" s="2" t="s">
@@ -6213,7 +6212,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" hidden="1">
       <c r="A41" s="2" t="s">
         <v>181</v>
       </c>
@@ -6259,7 +6258,7 @@
       <c r="O41" s="9">
         <v>43536</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P41" s="18">
         <v>5</v>
       </c>
       <c r="Q41" s="2" t="s">
@@ -6293,7 +6292,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" hidden="1">
       <c r="A42" s="2" t="s">
         <v>183</v>
       </c>
@@ -6339,7 +6338,7 @@
       <c r="O42" s="9">
         <v>35339</v>
       </c>
-      <c r="P42" s="19">
+      <c r="P42" s="18">
         <v>28</v>
       </c>
       <c r="Q42" s="2" t="s">
@@ -6373,7 +6372,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" hidden="1">
       <c r="A43" s="2" t="s">
         <v>187</v>
       </c>
@@ -6419,7 +6418,7 @@
       <c r="O43" s="9">
         <v>36463</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P43" s="18">
         <v>25</v>
       </c>
       <c r="Q43" s="2" t="s">
@@ -6453,7 +6452,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" hidden="1">
       <c r="A44" s="2" t="s">
         <v>190</v>
       </c>
@@ -6499,7 +6498,7 @@
       <c r="O44" s="9">
         <v>38992</v>
       </c>
-      <c r="P44" s="19">
+      <c r="P44" s="18">
         <v>18</v>
       </c>
       <c r="Q44" s="2" t="s">
@@ -6533,7 +6532,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" hidden="1">
       <c r="A45" s="2" t="s">
         <v>193</v>
       </c>
@@ -6579,7 +6578,7 @@
       <c r="O45" s="9">
         <v>40434</v>
       </c>
-      <c r="P45" s="19">
+      <c r="P45" s="18">
         <v>14</v>
       </c>
       <c r="Q45" s="2" t="s">
@@ -6613,7 +6612,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" hidden="1">
       <c r="A46" s="2" t="s">
         <v>196</v>
       </c>
@@ -6659,7 +6658,7 @@
       <c r="O46" s="9">
         <v>37193</v>
       </c>
-      <c r="P46" s="19">
+      <c r="P46" s="18">
         <v>23</v>
       </c>
       <c r="Q46" s="2" t="s">
@@ -6693,7 +6692,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" hidden="1">
       <c r="A47" s="2" t="s">
         <v>200</v>
       </c>
@@ -6739,7 +6738,7 @@
       <c r="O47" s="9">
         <v>43134</v>
       </c>
-      <c r="P47" s="19">
+      <c r="P47" s="18">
         <v>6</v>
       </c>
       <c r="Q47" s="2" t="s">
@@ -6773,7 +6772,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" hidden="1">
       <c r="A48" s="2" t="s">
         <v>203</v>
       </c>
@@ -6819,7 +6818,7 @@
       <c r="O48" s="9">
         <v>38992</v>
       </c>
-      <c r="P48" s="19">
+      <c r="P48" s="18">
         <v>18</v>
       </c>
       <c r="Q48" s="2" t="s">
@@ -6853,7 +6852,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" hidden="1">
       <c r="A49" s="2" t="s">
         <v>207</v>
       </c>
@@ -6899,7 +6898,7 @@
       <c r="O49" s="9">
         <v>42773</v>
       </c>
-      <c r="P49" s="19">
+      <c r="P49" s="18">
         <v>7</v>
       </c>
       <c r="Q49" s="2" t="s">
@@ -6933,7 +6932,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" hidden="1">
       <c r="A50" s="2" t="s">
         <v>209</v>
       </c>
@@ -6979,7 +6978,7 @@
       <c r="O50" s="9">
         <v>37193</v>
       </c>
-      <c r="P50" s="19">
+      <c r="P50" s="18">
         <v>23</v>
       </c>
       <c r="Q50" s="2" t="s">
@@ -7013,7 +7012,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" hidden="1">
       <c r="A51" s="2" t="s">
         <v>212</v>
       </c>
@@ -7059,7 +7058,7 @@
       <c r="O51" s="9">
         <v>39384</v>
       </c>
-      <c r="P51" s="19">
+      <c r="P51" s="18">
         <v>17</v>
       </c>
       <c r="Q51" s="2" t="s">
@@ -7093,7 +7092,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" hidden="1">
       <c r="A52" s="2" t="s">
         <v>217</v>
       </c>
@@ -7139,7 +7138,7 @@
       <c r="O52" s="9">
         <v>42773</v>
       </c>
-      <c r="P52" s="19">
+      <c r="P52" s="18">
         <v>7</v>
       </c>
       <c r="Q52" s="2" t="s">
@@ -7173,7 +7172,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" hidden="1">
       <c r="A53" s="2" t="s">
         <v>220</v>
       </c>
@@ -7219,7 +7218,7 @@
       <c r="O53" s="9">
         <v>43536</v>
       </c>
-      <c r="P53" s="19">
+      <c r="P53" s="18">
         <v>5</v>
       </c>
       <c r="Q53" s="2" t="s">
@@ -7253,7 +7252,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" hidden="1">
       <c r="A54" s="2" t="s">
         <v>223</v>
       </c>
@@ -7299,7 +7298,7 @@
       <c r="O54" s="9">
         <v>40434</v>
       </c>
-      <c r="P54" s="19">
+      <c r="P54" s="18">
         <v>14</v>
       </c>
       <c r="Q54" s="2" t="s">
@@ -7333,7 +7332,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" hidden="1">
       <c r="A55" s="2" t="s">
         <v>227</v>
       </c>
@@ -7379,7 +7378,7 @@
       <c r="O55" s="9">
         <v>41396</v>
       </c>
-      <c r="P55" s="19">
+      <c r="P55" s="18">
         <v>11</v>
       </c>
       <c r="Q55" s="2" t="s">
@@ -7413,7 +7412,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" hidden="1">
       <c r="A56" s="2" t="s">
         <v>231</v>
       </c>
@@ -7459,7 +7458,7 @@
       <c r="O56" s="9">
         <v>43870</v>
       </c>
-      <c r="P56" s="19">
+      <c r="P56" s="18">
         <v>4</v>
       </c>
       <c r="Q56" s="2" t="s">
@@ -7493,7 +7492,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" hidden="1">
       <c r="A57" s="2" t="s">
         <v>233</v>
       </c>
@@ -7539,7 +7538,7 @@
       <c r="O57" s="9">
         <v>38992</v>
       </c>
-      <c r="P57" s="19">
+      <c r="P57" s="18">
         <v>18</v>
       </c>
       <c r="Q57" s="2" t="s">
@@ -7573,7 +7572,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" hidden="1">
       <c r="A58" s="2" t="s">
         <v>238</v>
       </c>
@@ -7619,7 +7618,7 @@
       <c r="O58" s="9">
         <v>41396</v>
       </c>
-      <c r="P58" s="19">
+      <c r="P58" s="18">
         <v>11</v>
       </c>
       <c r="Q58" s="2" t="s">
@@ -7653,7 +7652,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" hidden="1">
       <c r="A59" s="2" t="s">
         <v>241</v>
       </c>
@@ -7699,7 +7698,7 @@
       <c r="O59" s="9">
         <v>38282</v>
       </c>
-      <c r="P59" s="19">
+      <c r="P59" s="18">
         <v>20</v>
       </c>
       <c r="Q59" s="2" t="s">
@@ -7733,7 +7732,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" hidden="1">
       <c r="A60" s="2" t="s">
         <v>247</v>
       </c>
@@ -7779,7 +7778,7 @@
       <c r="O60" s="9">
         <v>41396</v>
       </c>
-      <c r="P60" s="19">
+      <c r="P60" s="18">
         <v>11</v>
       </c>
       <c r="Q60" s="2" t="s">
@@ -7813,7 +7812,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" hidden="1">
       <c r="A61" s="2" t="s">
         <v>249</v>
       </c>
@@ -7859,7 +7858,7 @@
       <c r="O61" s="9">
         <v>39747</v>
       </c>
-      <c r="P61" s="19">
+      <c r="P61" s="18">
         <v>16</v>
       </c>
       <c r="Q61" s="2" t="s">
@@ -7893,7 +7892,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" hidden="1">
       <c r="A62" s="2" t="s">
         <v>252</v>
       </c>
@@ -7939,7 +7938,7 @@
       <c r="O62" s="9">
         <v>44599</v>
       </c>
-      <c r="P62" s="19">
+      <c r="P62" s="18">
         <v>2</v>
       </c>
       <c r="Q62" s="2" t="s">
@@ -7973,7 +7972,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" hidden="1">
       <c r="A63" s="2" t="s">
         <v>255</v>
       </c>
@@ -8019,7 +8018,7 @@
       <c r="O63" s="9">
         <v>44599</v>
       </c>
-      <c r="P63" s="19">
+      <c r="P63" s="18">
         <v>2</v>
       </c>
       <c r="Q63" s="2" t="s">
@@ -8053,7 +8052,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" hidden="1">
       <c r="A64" s="2" t="s">
         <v>257</v>
       </c>
@@ -8099,7 +8098,7 @@
       <c r="O64" s="9">
         <v>44599</v>
       </c>
-      <c r="P64" s="19">
+      <c r="P64" s="18">
         <v>2</v>
       </c>
       <c r="Q64" s="2" t="s">
@@ -8133,7 +8132,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" hidden="1">
       <c r="A65" s="2" t="s">
         <v>259</v>
       </c>
@@ -8179,7 +8178,7 @@
       <c r="O65" s="9">
         <v>44599</v>
       </c>
-      <c r="P65" s="19">
+      <c r="P65" s="18">
         <v>2</v>
       </c>
       <c r="Q65" s="2" t="s">
@@ -8213,7 +8212,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" hidden="1">
       <c r="A66" s="2" t="s">
         <v>261</v>
       </c>
@@ -8259,7 +8258,7 @@
       <c r="O66" s="9">
         <v>44599</v>
       </c>
-      <c r="P66" s="19">
+      <c r="P66" s="18">
         <v>2</v>
       </c>
       <c r="Q66" s="2" t="s">
@@ -8293,7 +8292,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" hidden="1">
       <c r="A67" s="2" t="s">
         <v>263</v>
       </c>
@@ -8339,7 +8338,7 @@
       <c r="O67" s="9">
         <v>44599</v>
       </c>
-      <c r="P67" s="19">
+      <c r="P67" s="18">
         <v>2</v>
       </c>
       <c r="Q67" s="2" t="s">
@@ -8373,7 +8372,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" hidden="1">
       <c r="A68" s="2" t="s">
         <v>265</v>
       </c>
@@ -8419,7 +8418,7 @@
       <c r="O68" s="9">
         <v>44599</v>
       </c>
-      <c r="P68" s="19">
+      <c r="P68" s="18">
         <v>2</v>
       </c>
       <c r="Q68" s="2" t="s">
@@ -8453,7 +8452,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" hidden="1">
       <c r="A69" s="2" t="s">
         <v>267</v>
       </c>
@@ -8499,7 +8498,7 @@
       <c r="O69" s="9">
         <v>39747</v>
       </c>
-      <c r="P69" s="19">
+      <c r="P69" s="18">
         <v>16</v>
       </c>
       <c r="Q69" s="2" t="s">
@@ -8533,7 +8532,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" hidden="1">
       <c r="A70" s="2" t="s">
         <v>271</v>
       </c>
@@ -8579,7 +8578,7 @@
       <c r="O70" s="9">
         <v>35728</v>
       </c>
-      <c r="P70" s="19">
+      <c r="P70" s="18">
         <v>27</v>
       </c>
       <c r="Q70" s="2" t="s">
@@ -8613,7 +8612,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" hidden="1">
       <c r="A71" s="2" t="s">
         <v>276</v>
       </c>
@@ -8659,7 +8658,7 @@
       <c r="O71" s="9">
         <v>43536</v>
       </c>
-      <c r="P71" s="19">
+      <c r="P71" s="18">
         <v>5</v>
       </c>
       <c r="Q71" s="2" t="s">
@@ -8693,7 +8692,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" hidden="1">
       <c r="A72" s="2" t="s">
         <v>279</v>
       </c>
@@ -8739,7 +8738,7 @@
       <c r="O72" s="9">
         <v>43870</v>
       </c>
-      <c r="P72" s="19">
+      <c r="P72" s="18">
         <v>4</v>
       </c>
       <c r="Q72" s="2" t="s">
@@ -8773,7 +8772,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" hidden="1">
       <c r="A73" s="2" t="s">
         <v>281</v>
       </c>
@@ -8819,7 +8818,7 @@
       <c r="O73" s="9">
         <v>41041</v>
       </c>
-      <c r="P73" s="19">
+      <c r="P73" s="18">
         <v>12</v>
       </c>
       <c r="Q73" s="2" t="s">
@@ -8853,7 +8852,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" hidden="1">
       <c r="A74" s="2" t="s">
         <v>283</v>
       </c>
@@ -8899,7 +8898,7 @@
       <c r="O74" s="9">
         <v>36122</v>
       </c>
-      <c r="P74" s="19">
+      <c r="P74" s="18">
         <v>26</v>
       </c>
       <c r="Q74" s="2" t="s">
@@ -8933,7 +8932,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" hidden="1">
       <c r="A75" s="2" t="s">
         <v>287</v>
       </c>
@@ -8979,7 +8978,7 @@
       <c r="O75" s="9">
         <v>41396</v>
       </c>
-      <c r="P75" s="19">
+      <c r="P75" s="18">
         <v>11</v>
       </c>
       <c r="Q75" s="2" t="s">
@@ -9013,7 +9012,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" hidden="1">
       <c r="A76" s="2" t="s">
         <v>290</v>
       </c>
@@ -9059,7 +9058,7 @@
       <c r="O76" s="9">
         <v>35728</v>
       </c>
-      <c r="P76" s="19">
+      <c r="P76" s="18">
         <v>27</v>
       </c>
       <c r="Q76" s="2" t="s">
@@ -9093,7 +9092,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" hidden="1">
       <c r="A77" s="2" t="s">
         <v>293</v>
       </c>
@@ -9139,7 +9138,7 @@
       <c r="O77" s="9">
         <v>36463</v>
       </c>
-      <c r="P77" s="19">
+      <c r="P77" s="18">
         <v>25</v>
       </c>
       <c r="Q77" s="2" t="s">
@@ -9170,7 +9169,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" hidden="1">
       <c r="A78" s="2" t="s">
         <v>297</v>
       </c>
@@ -9216,7 +9215,7 @@
       <c r="O78" s="9">
         <v>33936</v>
       </c>
-      <c r="P78" s="19">
+      <c r="P78" s="18">
         <v>32</v>
       </c>
       <c r="Q78" s="2" t="s">
@@ -9247,7 +9246,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" hidden="1">
       <c r="A79" s="2" t="s">
         <v>300</v>
       </c>
@@ -9293,7 +9292,7 @@
       <c r="O79" s="9">
         <v>38282</v>
       </c>
-      <c r="P79" s="19">
+      <c r="P79" s="18">
         <v>20</v>
       </c>
       <c r="Q79" s="2" t="s">
@@ -9327,7 +9326,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" hidden="1">
       <c r="A80" s="2" t="s">
         <v>303</v>
       </c>
@@ -9373,7 +9372,7 @@
       <c r="O80" s="9">
         <v>41041</v>
       </c>
-      <c r="P80" s="19">
+      <c r="P80" s="18">
         <v>12</v>
       </c>
       <c r="Q80" s="2" t="s">
@@ -9407,7 +9406,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" hidden="1">
       <c r="A81" s="2" t="s">
         <v>306</v>
       </c>
@@ -9453,7 +9452,7 @@
       <c r="O81" s="9">
         <v>37592</v>
       </c>
-      <c r="P81" s="19">
+      <c r="P81" s="18">
         <v>22</v>
       </c>
       <c r="Q81" s="2" t="s">
@@ -9487,7 +9486,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" hidden="1">
       <c r="A82" s="2" t="s">
         <v>309</v>
       </c>
@@ -9533,7 +9532,7 @@
       <c r="O82" s="9">
         <v>43134</v>
       </c>
-      <c r="P82" s="19">
+      <c r="P82" s="18">
         <v>6</v>
       </c>
       <c r="Q82" s="2" t="s">
@@ -9567,7 +9566,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" hidden="1">
       <c r="A83" s="2" t="s">
         <v>313</v>
       </c>
@@ -9613,7 +9612,7 @@
       <c r="O83" s="9">
         <v>39384</v>
       </c>
-      <c r="P83" s="19">
+      <c r="P83" s="18">
         <v>17</v>
       </c>
       <c r="Q83" s="2" t="s">
@@ -9647,7 +9646,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" hidden="1">
       <c r="A84" s="2" t="s">
         <v>318</v>
       </c>
@@ -9693,7 +9692,7 @@
       <c r="O84" s="9">
         <v>38992</v>
       </c>
-      <c r="P84" s="19">
+      <c r="P84" s="18">
         <v>18</v>
       </c>
       <c r="Q84" s="2" t="s">
@@ -9727,7 +9726,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" hidden="1">
       <c r="A85" s="2" t="s">
         <v>322</v>
       </c>
@@ -9773,7 +9772,7 @@
       <c r="O85" s="9">
         <v>41041</v>
       </c>
-      <c r="P85" s="19">
+      <c r="P85" s="18">
         <v>12</v>
       </c>
       <c r="Q85" s="2" t="s">
@@ -9804,7 +9803,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" hidden="1">
       <c r="A86" s="2" t="s">
         <v>325</v>
       </c>
@@ -9850,7 +9849,7 @@
       <c r="O86" s="9">
         <v>41396</v>
       </c>
-      <c r="P86" s="19">
+      <c r="P86" s="18">
         <v>11</v>
       </c>
       <c r="Q86" s="2" t="s">
@@ -9881,7 +9880,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" hidden="1">
       <c r="A87" s="2" t="s">
         <v>327</v>
       </c>
@@ -9927,7 +9926,7 @@
       <c r="O87" s="9">
         <v>33936</v>
       </c>
-      <c r="P87" s="19">
+      <c r="P87" s="18">
         <v>32</v>
       </c>
       <c r="Q87" s="2" t="s">
@@ -9961,7 +9960,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" hidden="1">
       <c r="A88" s="2" t="s">
         <v>331</v>
       </c>
@@ -10007,7 +10006,7 @@
       <c r="O88" s="9">
         <v>36463</v>
       </c>
-      <c r="P88" s="19">
+      <c r="P88" s="18">
         <v>25</v>
       </c>
       <c r="Q88" s="2" t="s">
@@ -10041,7 +10040,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" hidden="1">
       <c r="A89" s="2" t="s">
         <v>334</v>
       </c>
@@ -10087,7 +10086,7 @@
       <c r="O89" s="9">
         <v>39384</v>
       </c>
-      <c r="P89" s="19">
+      <c r="P89" s="18">
         <v>17</v>
       </c>
       <c r="Q89" s="2" t="s">
@@ -10121,7 +10120,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" hidden="1">
       <c r="A90" s="2" t="s">
         <v>338</v>
       </c>
@@ -10167,7 +10166,7 @@
       <c r="O90" s="9">
         <v>39747</v>
       </c>
-      <c r="P90" s="19">
+      <c r="P90" s="18">
         <v>16</v>
       </c>
       <c r="Q90" s="2" t="s">
@@ -10201,7 +10200,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" hidden="1">
       <c r="A91" s="2" t="s">
         <v>341</v>
       </c>
@@ -10247,7 +10246,7 @@
       <c r="O91" s="9">
         <v>40434</v>
       </c>
-      <c r="P91" s="19">
+      <c r="P91" s="18">
         <v>14</v>
       </c>
       <c r="Q91" s="2" t="s">
@@ -10281,7 +10280,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" hidden="1">
       <c r="A92" s="2" t="s">
         <v>344</v>
       </c>
@@ -10327,7 +10326,7 @@
       <c r="O92" s="9">
         <v>41825</v>
       </c>
-      <c r="P92" s="19">
+      <c r="P92" s="18">
         <v>10</v>
       </c>
       <c r="Q92" s="2" t="s">
@@ -10361,7 +10360,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" hidden="1">
       <c r="A93" s="2" t="s">
         <v>347</v>
       </c>
@@ -10407,7 +10406,7 @@
       <c r="O93" s="9">
         <v>43536</v>
       </c>
-      <c r="P93" s="19">
+      <c r="P93" s="18">
         <v>5</v>
       </c>
       <c r="Q93" s="2" t="s">
@@ -10441,7 +10440,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" hidden="1">
       <c r="A94" s="2" t="s">
         <v>349</v>
       </c>
@@ -10487,7 +10486,7 @@
       <c r="O94" s="9">
         <v>40057</v>
       </c>
-      <c r="P94" s="19">
+      <c r="P94" s="18">
         <v>15</v>
       </c>
       <c r="Q94" s="2" t="s">
@@ -10521,7 +10520,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" hidden="1">
       <c r="A95" s="2" t="s">
         <v>351</v>
       </c>
@@ -10567,7 +10566,7 @@
       <c r="O95" s="9">
         <v>42773</v>
       </c>
-      <c r="P95" s="19">
+      <c r="P95" s="18">
         <v>7</v>
       </c>
       <c r="Q95" s="2" t="s">
@@ -10599,7 +10598,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" hidden="1">
       <c r="A96" s="2" t="s">
         <v>356</v>
       </c>
@@ -10645,7 +10644,7 @@
       <c r="O96" s="9">
         <v>40434</v>
       </c>
-      <c r="P96" s="19">
+      <c r="P96" s="18">
         <v>14</v>
       </c>
       <c r="Q96" s="2" t="s">
@@ -10674,7 +10673,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" hidden="1">
       <c r="A97" s="2" t="s">
         <v>359</v>
       </c>
@@ -10720,7 +10719,7 @@
       <c r="O97" s="9">
         <v>43536</v>
       </c>
-      <c r="P97" s="19">
+      <c r="P97" s="18">
         <v>5</v>
       </c>
       <c r="Q97" s="2" t="s">
@@ -10749,7 +10748,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" hidden="1">
       <c r="A98" s="2" t="s">
         <v>361</v>
       </c>
@@ -10795,7 +10794,7 @@
       <c r="O98" s="9">
         <v>44157</v>
       </c>
-      <c r="P98" s="19">
+      <c r="P98" s="18">
         <v>4</v>
       </c>
       <c r="Q98" s="2" t="s">
@@ -10824,7 +10823,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" hidden="1">
       <c r="A99" s="2" t="s">
         <v>363</v>
       </c>
@@ -10870,7 +10869,7 @@
       <c r="O99" s="9">
         <v>44157</v>
       </c>
-      <c r="P99" s="19">
+      <c r="P99" s="18">
         <v>4</v>
       </c>
       <c r="Q99" s="2" t="s">
@@ -10902,7 +10901,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" hidden="1">
       <c r="A100" s="2" t="s">
         <v>365</v>
       </c>
@@ -10948,7 +10947,7 @@
       <c r="O100" s="9">
         <v>34615</v>
       </c>
-      <c r="P100" s="19">
+      <c r="P100" s="18">
         <v>30</v>
       </c>
       <c r="Q100" s="2" t="s">
@@ -10982,7 +10981,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" hidden="1">
       <c r="A101" s="2" t="s">
         <v>368</v>
       </c>
@@ -11028,7 +11027,7 @@
       <c r="O101" s="9">
         <v>43134</v>
       </c>
-      <c r="P101" s="19">
+      <c r="P101" s="18">
         <v>6</v>
       </c>
       <c r="Q101" s="2" t="s">
@@ -11062,7 +11061,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" hidden="1">
       <c r="A102" s="2" t="s">
         <v>371</v>
       </c>
@@ -11108,7 +11107,7 @@
       <c r="O102" s="9">
         <v>40057</v>
       </c>
-      <c r="P102" s="19">
+      <c r="P102" s="18">
         <v>15</v>
       </c>
       <c r="Q102" s="2" t="s">
@@ -11142,7 +11141,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" hidden="1">
       <c r="A103" s="2" t="s">
         <v>374</v>
       </c>
@@ -11188,7 +11187,7 @@
       <c r="O103" s="9">
         <v>40434</v>
       </c>
-      <c r="P103" s="19">
+      <c r="P103" s="18">
         <v>14</v>
       </c>
       <c r="Q103" s="2" t="s">
@@ -11222,7 +11221,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" hidden="1">
       <c r="A104" s="2" t="s">
         <v>376</v>
       </c>
@@ -11268,7 +11267,7 @@
       <c r="O104" s="9">
         <v>39384</v>
       </c>
-      <c r="P104" s="19">
+      <c r="P104" s="18">
         <v>17</v>
       </c>
       <c r="Q104" s="2" t="s">
@@ -11302,7 +11301,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" hidden="1">
       <c r="A105" s="2" t="s">
         <v>380</v>
       </c>
@@ -11348,7 +11347,7 @@
       <c r="O105" s="9">
         <v>41825</v>
       </c>
-      <c r="P105" s="19">
+      <c r="P105" s="18">
         <v>10</v>
       </c>
       <c r="Q105" s="2" t="s">
@@ -11382,7 +11381,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" hidden="1">
       <c r="A106" s="2" t="s">
         <v>382</v>
       </c>
@@ -11428,7 +11427,7 @@
       <c r="O106" s="9">
         <v>40434</v>
       </c>
-      <c r="P106" s="19">
+      <c r="P106" s="18">
         <v>14</v>
       </c>
       <c r="Q106" s="2" t="s">
@@ -11462,7 +11461,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" hidden="1">
       <c r="A107" s="2" t="s">
         <v>384</v>
       </c>
@@ -11508,7 +11507,7 @@
       <c r="O107" s="9">
         <v>38282</v>
       </c>
-      <c r="P107" s="19">
+      <c r="P107" s="18">
         <v>20</v>
       </c>
       <c r="Q107" s="2" t="s">
@@ -11542,7 +11541,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" hidden="1">
       <c r="A108" s="2" t="s">
         <v>389</v>
       </c>
@@ -11588,7 +11587,7 @@
       <c r="O108" s="9">
         <v>42773</v>
       </c>
-      <c r="P108" s="19">
+      <c r="P108" s="18">
         <v>7</v>
       </c>
       <c r="Q108" s="2" t="s">
@@ -11622,7 +11621,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" hidden="1">
       <c r="A109" s="2" t="s">
         <v>391</v>
       </c>
@@ -11668,7 +11667,7 @@
       <c r="O109" s="9">
         <v>39747</v>
       </c>
-      <c r="P109" s="19">
+      <c r="P109" s="18">
         <v>16</v>
       </c>
       <c r="Q109" s="2" t="s">
@@ -11702,7 +11701,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" hidden="1">
       <c r="A110" s="2" t="s">
         <v>394</v>
       </c>
@@ -11748,7 +11747,7 @@
       <c r="O110" s="9">
         <v>41396</v>
       </c>
-      <c r="P110" s="19">
+      <c r="P110" s="18">
         <v>11</v>
       </c>
       <c r="Q110" s="2" t="s">
@@ -11782,7 +11781,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" hidden="1">
       <c r="A111" s="2" t="s">
         <v>398</v>
       </c>
@@ -11828,7 +11827,7 @@
       <c r="O111" s="9">
         <v>35728</v>
       </c>
-      <c r="P111" s="19">
+      <c r="P111" s="18">
         <v>27</v>
       </c>
       <c r="Q111" s="2" t="s">
@@ -11862,7 +11861,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" hidden="1">
       <c r="A112" s="2" t="s">
         <v>401</v>
       </c>
@@ -11908,7 +11907,7 @@
       <c r="O112" s="9">
         <v>42773</v>
       </c>
-      <c r="P112" s="19">
+      <c r="P112" s="18">
         <v>7</v>
       </c>
       <c r="Q112" s="2" t="s">
@@ -11942,7 +11941,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" hidden="1">
       <c r="A113" s="2" t="s">
         <v>404</v>
       </c>
@@ -11988,7 +11987,7 @@
       <c r="O113" s="9">
         <v>43536</v>
       </c>
-      <c r="P113" s="19">
+      <c r="P113" s="18">
         <v>5</v>
       </c>
       <c r="Q113" s="2" t="s">
@@ -12022,7 +12021,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" hidden="1">
       <c r="A114" s="2" t="s">
         <v>406</v>
       </c>
@@ -12068,7 +12067,7 @@
       <c r="O114" s="9">
         <v>44157</v>
       </c>
-      <c r="P114" s="19">
+      <c r="P114" s="18">
         <v>4</v>
       </c>
       <c r="Q114" s="2" t="s">
@@ -12100,7 +12099,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" hidden="1">
       <c r="A115" s="2" t="s">
         <v>408</v>
       </c>
@@ -12146,7 +12145,7 @@
       <c r="O115" s="9">
         <v>37592</v>
       </c>
-      <c r="P115" s="19">
+      <c r="P115" s="18">
         <v>22</v>
       </c>
       <c r="Q115" s="2" t="s">
@@ -12180,7 +12179,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" hidden="1">
       <c r="A116" s="2" t="s">
         <v>411</v>
       </c>
@@ -12226,7 +12225,7 @@
       <c r="O116" s="9">
         <v>41825</v>
       </c>
-      <c r="P116" s="19">
+      <c r="P116" s="18">
         <v>10</v>
       </c>
       <c r="Q116" s="2" t="s">
@@ -12258,7 +12257,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" hidden="1">
       <c r="A117" s="2" t="s">
         <v>413</v>
       </c>
@@ -12304,7 +12303,7 @@
       <c r="O117" s="9">
         <v>44599</v>
       </c>
-      <c r="P117" s="19">
+      <c r="P117" s="18">
         <v>2</v>
       </c>
       <c r="Q117" s="2" t="s">
@@ -12336,7 +12335,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" hidden="1">
       <c r="A118" s="2" t="s">
         <v>416</v>
       </c>
@@ -12382,7 +12381,7 @@
       <c r="O118" s="9">
         <v>43536</v>
       </c>
-      <c r="P118" s="19">
+      <c r="P118" s="18">
         <v>5</v>
       </c>
       <c r="Q118" s="2" t="s">
@@ -12414,7 +12413,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" hidden="1">
       <c r="A119" s="2" t="s">
         <v>417</v>
       </c>
@@ -12460,7 +12459,7 @@
       <c r="O119" s="9">
         <v>41041</v>
       </c>
-      <c r="P119" s="19">
+      <c r="P119" s="18">
         <v>12</v>
       </c>
       <c r="Q119" s="2" t="s">
@@ -12494,7 +12493,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" hidden="1">
       <c r="A120" s="2" t="s">
         <v>419</v>
       </c>
@@ -12540,7 +12539,7 @@
       <c r="O120" s="9">
         <v>35728</v>
       </c>
-      <c r="P120" s="19">
+      <c r="P120" s="18">
         <v>27</v>
       </c>
       <c r="Q120" s="2" t="s">
@@ -12572,7 +12571,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" hidden="1">
       <c r="A121" s="2" t="s">
         <v>422</v>
       </c>
@@ -12618,7 +12617,7 @@
       <c r="O121" s="9">
         <v>36122</v>
       </c>
-      <c r="P121" s="19">
+      <c r="P121" s="18">
         <v>26</v>
       </c>
       <c r="Q121" s="2" t="s">
@@ -12652,7 +12651,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" hidden="1">
       <c r="A122" s="2" t="s">
         <v>425</v>
       </c>
@@ -12698,7 +12697,7 @@
       <c r="O122" s="9">
         <v>44599</v>
       </c>
-      <c r="P122" s="19">
+      <c r="P122" s="18">
         <v>2</v>
       </c>
       <c r="Q122" s="2" t="s">
@@ -12730,7 +12729,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" hidden="1">
       <c r="A123" s="2" t="s">
         <v>427</v>
       </c>
@@ -12776,7 +12775,7 @@
       <c r="O123" s="9">
         <v>37950</v>
       </c>
-      <c r="P123" s="19">
+      <c r="P123" s="18">
         <v>21</v>
       </c>
       <c r="Q123" s="2" t="s">
@@ -12810,7 +12809,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" hidden="1">
       <c r="A124" s="2" t="s">
         <v>430</v>
       </c>
@@ -12856,7 +12855,7 @@
       <c r="O124" s="9">
         <v>39384</v>
       </c>
-      <c r="P124" s="19">
+      <c r="P124" s="18">
         <v>17</v>
       </c>
       <c r="Q124" s="2" t="s">
@@ -12890,7 +12889,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" hidden="1">
       <c r="A125" s="2" t="s">
         <v>433</v>
       </c>
@@ -12936,7 +12935,7 @@
       <c r="O125" s="9">
         <v>40434</v>
       </c>
-      <c r="P125" s="19">
+      <c r="P125" s="18">
         <v>14</v>
       </c>
       <c r="Q125" s="2" t="s">
@@ -12968,7 +12967,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" hidden="1">
       <c r="A126" s="2" t="s">
         <v>434</v>
       </c>
@@ -13014,7 +13013,7 @@
       <c r="O126" s="9">
         <v>43870</v>
       </c>
-      <c r="P126" s="19">
+      <c r="P126" s="18">
         <v>4</v>
       </c>
       <c r="Q126" s="2" t="s">
@@ -13048,7 +13047,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" hidden="1">
       <c r="A127" s="2" t="s">
         <v>437</v>
       </c>
@@ -13094,7 +13093,7 @@
       <c r="O127" s="9">
         <v>40057</v>
       </c>
-      <c r="P127" s="19">
+      <c r="P127" s="18">
         <v>15</v>
       </c>
       <c r="Q127" s="2" t="s">
@@ -13128,7 +13127,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" hidden="1">
       <c r="A128" s="2" t="s">
         <v>439</v>
       </c>
@@ -13174,7 +13173,7 @@
       <c r="O128" s="9">
         <v>39747</v>
       </c>
-      <c r="P128" s="19">
+      <c r="P128" s="18">
         <v>16</v>
       </c>
       <c r="Q128" s="2" t="s">
@@ -13208,7 +13207,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" hidden="1">
       <c r="A129" s="2" t="s">
         <v>442</v>
       </c>
@@ -13254,7 +13253,7 @@
       <c r="O129" s="9">
         <v>37950</v>
       </c>
-      <c r="P129" s="19">
+      <c r="P129" s="18">
         <v>21</v>
       </c>
       <c r="Q129" s="2" t="s">
@@ -13288,7 +13287,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" hidden="1">
       <c r="A130" s="2" t="s">
         <v>444</v>
       </c>
@@ -13334,7 +13333,7 @@
       <c r="O130" s="9">
         <v>37193</v>
       </c>
-      <c r="P130" s="19">
+      <c r="P130" s="18">
         <v>23</v>
       </c>
       <c r="Q130" s="2" t="s">
@@ -13363,7 +13362,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" hidden="1">
       <c r="A131" s="2" t="s">
         <v>447</v>
       </c>
@@ -13409,7 +13408,7 @@
       <c r="O131" s="9">
         <v>44157</v>
       </c>
-      <c r="P131" s="19">
+      <c r="P131" s="18">
         <v>4</v>
       </c>
       <c r="Q131" s="2" t="s">
@@ -13443,7 +13442,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" hidden="1">
       <c r="A132" s="2" t="s">
         <v>450</v>
       </c>
@@ -13489,7 +13488,7 @@
       <c r="O132" s="9">
         <v>38282</v>
       </c>
-      <c r="P132" s="19">
+      <c r="P132" s="18">
         <v>20</v>
       </c>
       <c r="Q132" s="2" t="s">
@@ -13523,7 +13522,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" hidden="1">
       <c r="A133" s="2" t="s">
         <v>453</v>
       </c>
@@ -13569,7 +13568,7 @@
       <c r="O133" s="9">
         <v>39747</v>
       </c>
-      <c r="P133" s="19">
+      <c r="P133" s="18">
         <v>16</v>
       </c>
       <c r="Q133" s="2" t="s">
@@ -13600,7 +13599,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" hidden="1">
       <c r="A134" s="2" t="s">
         <v>455</v>
       </c>
@@ -13646,7 +13645,7 @@
       <c r="O134" s="9">
         <v>44599</v>
       </c>
-      <c r="P134" s="19">
+      <c r="P134" s="18">
         <v>2</v>
       </c>
       <c r="Q134" s="2" t="s">
@@ -13677,7 +13676,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" hidden="1">
       <c r="A135" s="2" t="s">
         <v>458</v>
       </c>
@@ -13723,7 +13722,7 @@
       <c r="O135" s="9">
         <v>43870</v>
       </c>
-      <c r="P135" s="19">
+      <c r="P135" s="18">
         <v>4</v>
       </c>
       <c r="Q135" s="2" t="s">
@@ -13754,7 +13753,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" hidden="1">
       <c r="A136" s="2" t="s">
         <v>460</v>
       </c>
@@ -13800,7 +13799,7 @@
       <c r="O136" s="9">
         <v>40434</v>
       </c>
-      <c r="P136" s="19">
+      <c r="P136" s="18">
         <v>14</v>
       </c>
       <c r="Q136" s="2" t="s">
@@ -13831,7 +13830,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" hidden="1">
       <c r="A137" s="2" t="s">
         <v>462</v>
       </c>
@@ -13877,7 +13876,7 @@
       <c r="O137" s="9">
         <v>38282</v>
       </c>
-      <c r="P137" s="19">
+      <c r="P137" s="18">
         <v>20</v>
       </c>
       <c r="Q137" s="2" t="s">
@@ -13908,7 +13907,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" hidden="1">
       <c r="A138" s="2" t="s">
         <v>465</v>
       </c>
@@ -13954,7 +13953,7 @@
       <c r="O138" s="9">
         <v>39747</v>
       </c>
-      <c r="P138" s="19">
+      <c r="P138" s="18">
         <v>16</v>
       </c>
       <c r="Q138" s="2" t="s">
@@ -13985,7 +13984,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" hidden="1">
       <c r="A139" s="2" t="s">
         <v>467</v>
       </c>
@@ -14031,7 +14030,7 @@
       <c r="O139" s="9">
         <v>38615</v>
       </c>
-      <c r="P139" s="19">
+      <c r="P139" s="18">
         <v>19</v>
       </c>
       <c r="Q139" s="2" t="s">
@@ -14062,7 +14061,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" hidden="1">
       <c r="A140" s="2" t="s">
         <v>469</v>
       </c>
@@ -14108,7 +14107,7 @@
       <c r="O140" s="9">
         <v>41041</v>
       </c>
-      <c r="P140" s="19">
+      <c r="P140" s="18">
         <v>12</v>
       </c>
       <c r="Q140" s="2" t="s">
@@ -14139,7 +14138,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" hidden="1">
       <c r="A141" s="2" t="s">
         <v>472</v>
       </c>
@@ -14185,7 +14184,7 @@
       <c r="O141" s="9">
         <v>39747</v>
       </c>
-      <c r="P141" s="19">
+      <c r="P141" s="18">
         <v>16</v>
       </c>
       <c r="Q141" s="2" t="s">
@@ -14216,7 +14215,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" hidden="1">
       <c r="A142" s="2" t="s">
         <v>475</v>
       </c>
@@ -14262,7 +14261,7 @@
       <c r="O142" s="9">
         <v>38615</v>
       </c>
-      <c r="P142" s="19">
+      <c r="P142" s="18">
         <v>19</v>
       </c>
       <c r="Q142" s="2" t="s">
@@ -14293,7 +14292,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" hidden="1">
       <c r="A143" s="2" t="s">
         <v>478</v>
       </c>
@@ -14339,7 +14338,7 @@
       <c r="O143" s="9">
         <v>38615</v>
       </c>
-      <c r="P143" s="19">
+      <c r="P143" s="18">
         <v>19</v>
       </c>
       <c r="Q143" s="2" t="s">
@@ -14370,7 +14369,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" hidden="1">
       <c r="A144" s="2" t="s">
         <v>481</v>
       </c>
@@ -14416,7 +14415,7 @@
       <c r="O144" s="9">
         <v>38282</v>
       </c>
-      <c r="P144" s="19">
+      <c r="P144" s="18">
         <v>20</v>
       </c>
       <c r="Q144" s="2" t="s">
@@ -14447,7 +14446,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" hidden="1">
       <c r="A145" s="2" t="s">
         <v>484</v>
       </c>
@@ -14493,7 +14492,7 @@
       <c r="O145" s="9">
         <v>43870</v>
       </c>
-      <c r="P145" s="19">
+      <c r="P145" s="18">
         <v>4</v>
       </c>
       <c r="Q145" s="2" t="s">
@@ -14524,7 +14523,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" hidden="1">
       <c r="A146" s="2" t="s">
         <v>486</v>
       </c>
@@ -14570,7 +14569,7 @@
       <c r="O146" s="9">
         <v>41041</v>
       </c>
-      <c r="P146" s="19">
+      <c r="P146" s="18">
         <v>12</v>
       </c>
       <c r="Q146" s="2" t="s">
@@ -14601,7 +14600,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" hidden="1">
       <c r="A147" s="2" t="s">
         <v>488</v>
       </c>
@@ -14647,7 +14646,7 @@
       <c r="O147" s="9">
         <v>40434</v>
       </c>
-      <c r="P147" s="19">
+      <c r="P147" s="18">
         <v>14</v>
       </c>
       <c r="Q147" s="2" t="s">
@@ -14678,7 +14677,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" hidden="1">
       <c r="A148" s="2" t="s">
         <v>490</v>
       </c>
@@ -14724,7 +14723,7 @@
       <c r="O148" s="9">
         <v>42376</v>
       </c>
-      <c r="P148" s="19">
+      <c r="P148" s="18">
         <v>8</v>
       </c>
       <c r="Q148" s="2" t="s">
@@ -14755,7 +14754,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" hidden="1">
       <c r="A149" s="2" t="s">
         <v>492</v>
       </c>
@@ -14801,7 +14800,7 @@
       <c r="O149" s="9">
         <v>39384</v>
       </c>
-      <c r="P149" s="19">
+      <c r="P149" s="18">
         <v>17</v>
       </c>
       <c r="Q149" s="2" t="s">
@@ -14832,7 +14831,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" hidden="1">
       <c r="A150" s="2" t="s">
         <v>495</v>
       </c>
@@ -14878,7 +14877,7 @@
       <c r="O150" s="9">
         <v>40057</v>
       </c>
-      <c r="P150" s="19">
+      <c r="P150" s="18">
         <v>15</v>
       </c>
       <c r="Q150" s="2" t="s">
@@ -14909,7 +14908,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" hidden="1">
       <c r="A151" s="2" t="s">
         <v>498</v>
       </c>
@@ -14955,7 +14954,7 @@
       <c r="O151" s="9">
         <v>43536</v>
       </c>
-      <c r="P151" s="19">
+      <c r="P151" s="18">
         <v>5</v>
       </c>
       <c r="Q151" s="2" t="s">
@@ -14986,7 +14985,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" hidden="1">
       <c r="A152" s="2" t="s">
         <v>501</v>
       </c>
@@ -15032,7 +15031,7 @@
       <c r="O152" s="9">
         <v>41825</v>
       </c>
-      <c r="P152" s="19">
+      <c r="P152" s="18">
         <v>10</v>
       </c>
       <c r="Q152" s="2" t="s">
@@ -15063,7 +15062,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" hidden="1">
       <c r="A153" s="2" t="s">
         <v>505</v>
       </c>
@@ -15109,7 +15108,7 @@
       <c r="O153" s="9">
         <v>44157</v>
       </c>
-      <c r="P153" s="19">
+      <c r="P153" s="18">
         <v>4</v>
       </c>
       <c r="Q153" s="2" t="s">
@@ -15140,7 +15139,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" hidden="1">
       <c r="A154" s="2" t="s">
         <v>506</v>
       </c>
@@ -15186,7 +15185,7 @@
       <c r="O154" s="9">
         <v>44599</v>
       </c>
-      <c r="P154" s="19">
+      <c r="P154" s="18">
         <v>2</v>
       </c>
       <c r="Q154" s="2" t="s">
@@ -15217,7 +15216,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" hidden="1">
       <c r="A155" s="2" t="s">
         <v>508</v>
       </c>
@@ -15263,7 +15262,7 @@
       <c r="O155" s="9">
         <v>35339</v>
       </c>
-      <c r="P155" s="19">
+      <c r="P155" s="18">
         <v>28</v>
       </c>
       <c r="Q155" s="2" t="s">
@@ -15294,7 +15293,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" hidden="1">
       <c r="A156" s="2" t="s">
         <v>511</v>
       </c>
@@ -15340,7 +15339,7 @@
       <c r="O156" s="9">
         <v>41396</v>
       </c>
-      <c r="P156" s="19">
+      <c r="P156" s="18">
         <v>11</v>
       </c>
       <c r="Q156" s="2" t="s">
@@ -15371,7 +15370,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" hidden="1">
       <c r="A157" s="2" t="s">
         <v>514</v>
       </c>
@@ -15417,7 +15416,7 @@
       <c r="O157" s="9">
         <v>41041</v>
       </c>
-      <c r="P157" s="19">
+      <c r="P157" s="18">
         <v>12</v>
       </c>
       <c r="Q157" s="2" t="s">
@@ -15448,7 +15447,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" hidden="1">
       <c r="A158" s="2" t="s">
         <v>516</v>
       </c>
@@ -15494,7 +15493,7 @@
       <c r="O158" s="9">
         <v>42376</v>
       </c>
-      <c r="P158" s="19">
+      <c r="P158" s="18">
         <v>8</v>
       </c>
       <c r="Q158" s="2" t="s">
@@ -15525,7 +15524,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" hidden="1">
       <c r="A159" s="2" t="s">
         <v>518</v>
       </c>
@@ -15571,7 +15570,7 @@
       <c r="O159" s="9">
         <v>44599</v>
       </c>
-      <c r="P159" s="19">
+      <c r="P159" s="18">
         <v>2</v>
       </c>
       <c r="Q159" s="2" t="s">
@@ -15602,7 +15601,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" hidden="1">
       <c r="A160" s="2" t="s">
         <v>520</v>
       </c>
@@ -15648,7 +15647,7 @@
       <c r="O160" s="9">
         <v>43536</v>
       </c>
-      <c r="P160" s="19">
+      <c r="P160" s="18">
         <v>5</v>
       </c>
       <c r="Q160" s="2" t="s">
@@ -15679,7 +15678,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" hidden="1">
       <c r="A161" s="2" t="s">
         <v>522</v>
       </c>
@@ -15725,7 +15724,7 @@
       <c r="O161" s="9">
         <v>35014</v>
       </c>
-      <c r="P161" s="19">
+      <c r="P161" s="18">
         <v>29</v>
       </c>
       <c r="Q161" s="2" t="s">
@@ -15756,7 +15755,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" hidden="1">
       <c r="A162" s="2" t="s">
         <v>526</v>
       </c>
@@ -15802,7 +15801,7 @@
       <c r="O162" s="9">
         <v>40434</v>
       </c>
-      <c r="P162" s="19">
+      <c r="P162" s="18">
         <v>14</v>
       </c>
       <c r="Q162" s="2" t="s">
@@ -15833,7 +15832,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" hidden="1">
       <c r="A163" s="2" t="s">
         <v>530</v>
       </c>
@@ -15879,7 +15878,7 @@
       <c r="O163" s="9">
         <v>41396</v>
       </c>
-      <c r="P163" s="19">
+      <c r="P163" s="18">
         <v>11</v>
       </c>
       <c r="Q163" s="2" t="s">
@@ -15910,7 +15909,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" hidden="1">
       <c r="A164" s="2" t="s">
         <v>533</v>
       </c>
@@ -15956,7 +15955,7 @@
       <c r="O164" s="9">
         <v>39747</v>
       </c>
-      <c r="P164" s="19">
+      <c r="P164" s="18">
         <v>16</v>
       </c>
       <c r="Q164" s="2" t="s">
@@ -15987,7 +15986,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" hidden="1">
       <c r="A165" s="2" t="s">
         <v>535</v>
       </c>
@@ -16033,7 +16032,7 @@
       <c r="O165" s="9">
         <v>35728</v>
       </c>
-      <c r="P165" s="19">
+      <c r="P165" s="18">
         <v>27</v>
       </c>
       <c r="Q165" s="2" t="s">
@@ -16064,7 +16063,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" hidden="1">
       <c r="A166" s="2" t="s">
         <v>538</v>
       </c>
@@ -16110,7 +16109,7 @@
       <c r="O166" s="9">
         <v>38992</v>
       </c>
-      <c r="P166" s="19">
+      <c r="P166" s="18">
         <v>18</v>
       </c>
       <c r="Q166" s="2" t="s">
@@ -16141,7 +16140,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" hidden="1">
       <c r="A167" s="2" t="s">
         <v>540</v>
       </c>
@@ -16187,7 +16186,7 @@
       <c r="O167" s="9">
         <v>36122</v>
       </c>
-      <c r="P167" s="19">
+      <c r="P167" s="18">
         <v>26</v>
       </c>
       <c r="Q167" s="2" t="s">
@@ -16218,7 +16217,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" hidden="1">
       <c r="A168" s="2" t="s">
         <v>543</v>
       </c>
@@ -16264,7 +16263,7 @@
       <c r="O168" s="9">
         <v>41396</v>
       </c>
-      <c r="P168" s="19">
+      <c r="P168" s="18">
         <v>11</v>
       </c>
       <c r="Q168" s="2" t="s">
@@ -16295,7 +16294,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" hidden="1">
       <c r="A169" s="2" t="s">
         <v>546</v>
       </c>
@@ -16341,7 +16340,7 @@
       <c r="O169" s="9">
         <v>32784</v>
       </c>
-      <c r="P169" s="19">
+      <c r="P169" s="18">
         <v>35</v>
       </c>
       <c r="Q169" s="2" t="s">
@@ -16372,7 +16371,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" hidden="1">
       <c r="A170" s="2" t="s">
         <v>550</v>
       </c>
@@ -16418,7 +16417,7 @@
       <c r="O170" s="9">
         <v>44157</v>
       </c>
-      <c r="P170" s="19">
+      <c r="P170" s="18">
         <v>4</v>
       </c>
       <c r="Q170" s="2" t="s">
@@ -16449,7 +16448,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" hidden="1">
       <c r="A171" s="2" t="s">
         <v>552</v>
       </c>
@@ -16495,7 +16494,7 @@
       <c r="O171" s="9">
         <v>37592</v>
       </c>
-      <c r="P171" s="19">
+      <c r="P171" s="18">
         <v>22</v>
       </c>
       <c r="Q171" s="2" t="s">
@@ -16526,7 +16525,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" hidden="1">
       <c r="A172" s="2" t="s">
         <v>555</v>
       </c>
@@ -16572,7 +16571,7 @@
       <c r="O172" s="9">
         <v>39384</v>
       </c>
-      <c r="P172" s="19">
+      <c r="P172" s="18">
         <v>17</v>
       </c>
       <c r="Q172" s="2" t="s">
@@ -16603,7 +16602,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" hidden="1">
       <c r="A173" s="2" t="s">
         <v>558</v>
       </c>
@@ -16649,7 +16648,7 @@
       <c r="O173" s="9">
         <v>39747</v>
       </c>
-      <c r="P173" s="19">
+      <c r="P173" s="18">
         <v>16</v>
       </c>
       <c r="Q173" s="2" t="s">
@@ -16680,7 +16679,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" hidden="1">
       <c r="A174" s="2" t="s">
         <v>560</v>
       </c>
@@ -16726,7 +16725,7 @@
       <c r="O174" s="9">
         <v>44599</v>
       </c>
-      <c r="P174" s="19">
+      <c r="P174" s="18">
         <v>2</v>
       </c>
       <c r="Q174" s="2" t="s">
@@ -16757,7 +16756,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" hidden="1">
       <c r="A175" s="2" t="s">
         <v>562</v>
       </c>
@@ -16803,7 +16802,7 @@
       <c r="O175" s="9">
         <v>38615</v>
       </c>
-      <c r="P175" s="19">
+      <c r="P175" s="18">
         <v>19</v>
       </c>
       <c r="Q175" s="2" t="s">
@@ -16834,7 +16833,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" hidden="1">
       <c r="A176" s="2" t="s">
         <v>566</v>
       </c>
@@ -16880,7 +16879,7 @@
       <c r="O176" s="9">
         <v>44599</v>
       </c>
-      <c r="P176" s="19">
+      <c r="P176" s="18">
         <v>2</v>
       </c>
       <c r="Q176" s="2" t="s">
@@ -16911,7 +16910,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" hidden="1">
       <c r="A177" s="2" t="s">
         <v>568</v>
       </c>
@@ -16957,7 +16956,7 @@
       <c r="O177" s="9">
         <v>38992</v>
       </c>
-      <c r="P177" s="19">
+      <c r="P177" s="18">
         <v>18</v>
       </c>
       <c r="Q177" s="2" t="s">
@@ -16988,7 +16987,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" hidden="1">
       <c r="A178" s="2" t="s">
         <v>570</v>
       </c>
@@ -17034,7 +17033,7 @@
       <c r="O178" s="9">
         <v>39384</v>
       </c>
-      <c r="P178" s="19">
+      <c r="P178" s="18">
         <v>17</v>
       </c>
       <c r="Q178" s="2" t="s">
@@ -17065,7 +17064,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" hidden="1">
       <c r="A179" s="2" t="s">
         <v>573</v>
       </c>
@@ -17111,7 +17110,7 @@
       <c r="O179" s="9">
         <v>40057</v>
       </c>
-      <c r="P179" s="19">
+      <c r="P179" s="18">
         <v>15</v>
       </c>
       <c r="Q179" s="2" t="s">
@@ -17142,7 +17141,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" hidden="1">
       <c r="A180" s="2" t="s">
         <v>575</v>
       </c>
@@ -17188,7 +17187,7 @@
       <c r="O180" s="9">
         <v>40057</v>
       </c>
-      <c r="P180" s="19">
+      <c r="P180" s="18">
         <v>15</v>
       </c>
       <c r="Q180" s="2" t="s">
@@ -17219,7 +17218,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" hidden="1">
       <c r="A181" s="2" t="s">
         <v>577</v>
       </c>
@@ -17265,7 +17264,7 @@
       <c r="O181" s="9">
         <v>41041</v>
       </c>
-      <c r="P181" s="19">
+      <c r="P181" s="18">
         <v>12</v>
       </c>
       <c r="Q181" s="2" t="s">
@@ -17296,7 +17295,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" hidden="1">
       <c r="A182" s="2" t="s">
         <v>579</v>
       </c>
@@ -17342,7 +17341,7 @@
       <c r="O182" s="9">
         <v>36827</v>
       </c>
-      <c r="P182" s="19">
+      <c r="P182" s="18">
         <v>24</v>
       </c>
       <c r="Q182" s="2" t="s">
@@ -17373,7 +17372,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" hidden="1">
       <c r="A183" s="2" t="s">
         <v>581</v>
       </c>
@@ -17419,7 +17418,7 @@
       <c r="O183" s="9">
         <v>38282</v>
       </c>
-      <c r="P183" s="19">
+      <c r="P183" s="18">
         <v>20</v>
       </c>
       <c r="Q183" s="2" t="s">
@@ -17450,7 +17449,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" hidden="1">
       <c r="A184" s="2" t="s">
         <v>584</v>
       </c>
@@ -17496,7 +17495,7 @@
       <c r="O184" s="9">
         <v>37193</v>
       </c>
-      <c r="P184" s="19">
+      <c r="P184" s="18">
         <v>23</v>
       </c>
       <c r="Q184" s="2" t="s">
@@ -17527,7 +17526,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" hidden="1">
       <c r="A185" s="2" t="s">
         <v>587</v>
       </c>
@@ -17573,7 +17572,7 @@
       <c r="O185" s="9">
         <v>36827</v>
       </c>
-      <c r="P185" s="19">
+      <c r="P185" s="18">
         <v>24</v>
       </c>
       <c r="Q185" s="2" t="s">
@@ -17604,7 +17603,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" hidden="1">
       <c r="A186" s="2" t="s">
         <v>589</v>
       </c>
@@ -17650,7 +17649,7 @@
       <c r="O186" s="9">
         <v>41041</v>
       </c>
-      <c r="P186" s="19">
+      <c r="P186" s="18">
         <v>12</v>
       </c>
       <c r="Q186" s="2" t="s">
@@ -17681,7 +17680,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" hidden="1">
       <c r="A187" s="2" t="s">
         <v>591</v>
       </c>
@@ -17727,7 +17726,7 @@
       <c r="O187" s="9">
         <v>39747</v>
       </c>
-      <c r="P187" s="19">
+      <c r="P187" s="18">
         <v>16</v>
       </c>
       <c r="Q187" s="2" t="s">
@@ -17758,7 +17757,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" hidden="1">
       <c r="A188" s="2" t="s">
         <v>593</v>
       </c>
@@ -17804,7 +17803,7 @@
       <c r="O188" s="9">
         <v>38282</v>
       </c>
-      <c r="P188" s="19">
+      <c r="P188" s="18">
         <v>20</v>
       </c>
       <c r="Q188" s="2" t="s">
@@ -17835,7 +17834,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" hidden="1">
       <c r="A189" s="2" t="s">
         <v>596</v>
       </c>
@@ -17881,7 +17880,7 @@
       <c r="O189" s="9">
         <v>39384</v>
       </c>
-      <c r="P189" s="19">
+      <c r="P189" s="18">
         <v>17</v>
       </c>
       <c r="Q189" s="2" t="s">
@@ -17912,7 +17911,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" hidden="1">
       <c r="A190" s="2" t="s">
         <v>599</v>
       </c>
@@ -17958,7 +17957,7 @@
       <c r="O190" s="9">
         <v>38615</v>
       </c>
-      <c r="P190" s="19">
+      <c r="P190" s="18">
         <v>19</v>
       </c>
       <c r="Q190" s="2" t="s">
@@ -17989,7 +17988,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" hidden="1">
       <c r="A191" s="2" t="s">
         <v>601</v>
       </c>
@@ -18035,7 +18034,7 @@
       <c r="O191" s="9">
         <v>41396</v>
       </c>
-      <c r="P191" s="19">
+      <c r="P191" s="18">
         <v>11</v>
       </c>
       <c r="Q191" s="2" t="s">
@@ -18066,7 +18065,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" hidden="1">
       <c r="A192" s="2" t="s">
         <v>603</v>
       </c>
@@ -18112,7 +18111,7 @@
       <c r="O192" s="9">
         <v>42376</v>
       </c>
-      <c r="P192" s="19">
+      <c r="P192" s="18">
         <v>8</v>
       </c>
       <c r="Q192" s="2" t="s">
@@ -18143,7 +18142,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" hidden="1">
       <c r="A193" s="2" t="s">
         <v>605</v>
       </c>
@@ -18189,7 +18188,7 @@
       <c r="O193" s="9">
         <v>41041</v>
       </c>
-      <c r="P193" s="19">
+      <c r="P193" s="18">
         <v>12</v>
       </c>
       <c r="Q193" s="2" t="s">
@@ -18220,7 +18219,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" hidden="1">
       <c r="A194" s="2" t="s">
         <v>606</v>
       </c>
@@ -18266,7 +18265,7 @@
       <c r="O194" s="9">
         <v>41396</v>
       </c>
-      <c r="P194" s="19">
+      <c r="P194" s="18">
         <v>11</v>
       </c>
       <c r="Q194" s="2" t="s">
@@ -18297,7 +18296,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" hidden="1">
       <c r="A195" s="2" t="s">
         <v>608</v>
       </c>
@@ -18343,7 +18342,7 @@
       <c r="O195" s="9">
         <v>44599</v>
       </c>
-      <c r="P195" s="19">
+      <c r="P195" s="18">
         <v>2</v>
       </c>
       <c r="Q195" s="2" t="s">
@@ -18374,7 +18373,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" hidden="1">
       <c r="A196" s="2" t="s">
         <v>610</v>
       </c>
@@ -18420,7 +18419,7 @@
       <c r="O196" s="9">
         <v>39747</v>
       </c>
-      <c r="P196" s="19">
+      <c r="P196" s="18">
         <v>16</v>
       </c>
       <c r="Q196" s="2" t="s">
@@ -18451,7 +18450,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" hidden="1">
       <c r="A197" s="2" t="s">
         <v>612</v>
       </c>
@@ -18497,7 +18496,7 @@
       <c r="O197" s="9">
         <v>43536</v>
       </c>
-      <c r="P197" s="19">
+      <c r="P197" s="18">
         <v>5</v>
       </c>
       <c r="Q197" s="2" t="s">
@@ -18528,7 +18527,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" hidden="1">
       <c r="A198" s="2" t="s">
         <v>613</v>
       </c>
@@ -18574,7 +18573,7 @@
       <c r="O198" s="9">
         <v>41041</v>
       </c>
-      <c r="P198" s="19">
+      <c r="P198" s="18">
         <v>12</v>
       </c>
       <c r="Q198" s="2" t="s">
@@ -18605,7 +18604,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" hidden="1">
       <c r="A199" s="2" t="s">
         <v>615</v>
       </c>
@@ -18651,7 +18650,7 @@
       <c r="O199" s="9">
         <v>41825</v>
       </c>
-      <c r="P199" s="19">
+      <c r="P199" s="18">
         <v>10</v>
       </c>
       <c r="Q199" s="2" t="s">
@@ -18682,7 +18681,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" hidden="1">
       <c r="A200" s="2" t="s">
         <v>617</v>
       </c>
@@ -18728,7 +18727,7 @@
       <c r="O200" s="9">
         <v>39747</v>
       </c>
-      <c r="P200" s="19">
+      <c r="P200" s="18">
         <v>16</v>
       </c>
       <c r="Q200" s="2" t="s">
@@ -18759,7 +18758,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="201" spans="1:26">
+    <row r="201" spans="1:26" hidden="1">
       <c r="A201" s="2" t="s">
         <v>618</v>
       </c>
@@ -18805,7 +18804,7 @@
       <c r="O201" s="9">
         <v>43536</v>
       </c>
-      <c r="P201" s="19">
+      <c r="P201" s="18">
         <v>5</v>
       </c>
       <c r="Q201" s="2" t="s">
@@ -18836,7 +18835,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="202" spans="1:26">
+    <row r="202" spans="1:26" hidden="1">
       <c r="A202" s="2" t="s">
         <v>620</v>
       </c>
@@ -18882,7 +18881,7 @@
       <c r="O202" s="9">
         <v>43870</v>
       </c>
-      <c r="P202" s="19">
+      <c r="P202" s="18">
         <v>4</v>
       </c>
       <c r="Q202" s="2" t="s">
@@ -18913,7 +18912,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:26" hidden="1">
       <c r="A203" s="2" t="s">
         <v>621</v>
       </c>
@@ -18959,7 +18958,7 @@
       <c r="O203" s="9">
         <v>39747</v>
       </c>
-      <c r="P203" s="19">
+      <c r="P203" s="18">
         <v>16</v>
       </c>
       <c r="Q203" s="2" t="s">
@@ -18990,7 +18989,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="204" spans="1:26">
+    <row r="204" spans="1:26" hidden="1">
       <c r="A204" s="2" t="s">
         <v>622</v>
       </c>
@@ -19036,7 +19035,7 @@
       <c r="O204" s="9">
         <v>43870</v>
       </c>
-      <c r="P204" s="19">
+      <c r="P204" s="18">
         <v>4</v>
       </c>
       <c r="Q204" s="2" t="s">
@@ -19070,7 +19069,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="205" spans="1:26">
+    <row r="205" spans="1:26" hidden="1">
       <c r="A205" s="2" t="s">
         <v>625</v>
       </c>
@@ -19116,7 +19115,7 @@
       <c r="O205" s="9">
         <v>41396</v>
       </c>
-      <c r="P205" s="19">
+      <c r="P205" s="18">
         <v>11</v>
       </c>
       <c r="Q205" s="2" t="s">
@@ -19147,7 +19146,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="206" spans="1:26">
+    <row r="206" spans="1:26" hidden="1">
       <c r="A206" s="2" t="s">
         <v>627</v>
       </c>
@@ -19193,7 +19192,7 @@
       <c r="O206" s="9">
         <v>37950</v>
       </c>
-      <c r="P206" s="19">
+      <c r="P206" s="18">
         <v>21</v>
       </c>
       <c r="Q206" s="2" t="s">
@@ -19224,7 +19223,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="207" spans="1:26">
+    <row r="207" spans="1:26" hidden="1">
       <c r="A207" s="2" t="s">
         <v>630</v>
       </c>
@@ -19270,7 +19269,7 @@
       <c r="O207" s="9">
         <v>40057</v>
       </c>
-      <c r="P207" s="19">
+      <c r="P207" s="18">
         <v>15</v>
       </c>
       <c r="Q207" s="2" t="s">
@@ -19301,7 +19300,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="208" spans="1:26">
+    <row r="208" spans="1:26" hidden="1">
       <c r="A208" s="2" t="s">
         <v>632</v>
       </c>
@@ -19347,7 +19346,7 @@
       <c r="O208" s="9">
         <v>39384</v>
       </c>
-      <c r="P208" s="19">
+      <c r="P208" s="18">
         <v>17</v>
       </c>
       <c r="Q208" s="2" t="s">
@@ -19378,7 +19377,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="209" spans="1:26">
+    <row r="209" spans="1:26" hidden="1">
       <c r="A209" s="2" t="s">
         <v>636</v>
       </c>
@@ -19424,7 +19423,7 @@
       <c r="O209" s="9">
         <v>44933</v>
       </c>
-      <c r="P209" s="19">
+      <c r="P209" s="18">
         <v>1</v>
       </c>
       <c r="Q209" s="2" t="s">
@@ -19455,7 +19454,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="210" spans="1:26">
+    <row r="210" spans="1:26" hidden="1">
       <c r="A210" s="2" t="s">
         <v>639</v>
       </c>
@@ -19501,7 +19500,7 @@
       <c r="O210" s="9">
         <v>44933</v>
       </c>
-      <c r="P210" s="19">
+      <c r="P210" s="18">
         <v>1</v>
       </c>
       <c r="Q210" s="2" t="s">
@@ -19532,7 +19531,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="211" spans="1:26">
+    <row r="211" spans="1:26" hidden="1">
       <c r="A211" s="2" t="s">
         <v>641</v>
       </c>
@@ -19578,7 +19577,7 @@
       <c r="O211" s="9">
         <v>44933</v>
       </c>
-      <c r="P211" s="19">
+      <c r="P211" s="18">
         <v>1</v>
       </c>
       <c r="Q211" s="2" t="s">
@@ -19609,7 +19608,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="212" spans="1:26">
+    <row r="212" spans="1:26" hidden="1">
       <c r="A212" s="2" t="s">
         <v>643</v>
       </c>
@@ -19655,7 +19654,7 @@
       <c r="O212" s="9">
         <v>37950</v>
       </c>
-      <c r="P212" s="19">
+      <c r="P212" s="18">
         <v>21</v>
       </c>
       <c r="Q212" s="2" t="s">
@@ -19686,7 +19685,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="213" spans="1:26">
+    <row r="213" spans="1:26" hidden="1">
       <c r="A213" s="2" t="s">
         <v>647</v>
       </c>
@@ -19732,7 +19731,7 @@
       <c r="O213" s="9">
         <v>43870</v>
       </c>
-      <c r="P213" s="19">
+      <c r="P213" s="18">
         <v>4</v>
       </c>
       <c r="Q213" s="2" t="s">
@@ -19763,7 +19762,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="214" spans="1:26">
+    <row r="214" spans="1:26" hidden="1">
       <c r="A214" s="2" t="s">
         <v>649</v>
       </c>
@@ -19809,7 +19808,7 @@
       <c r="O214" s="9">
         <v>43870</v>
       </c>
-      <c r="P214" s="19">
+      <c r="P214" s="18">
         <v>4</v>
       </c>
       <c r="Q214" s="2" t="s">
@@ -19840,7 +19839,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="215" spans="1:26">
+    <row r="215" spans="1:26" hidden="1">
       <c r="A215" s="2" t="s">
         <v>653</v>
       </c>
@@ -19886,7 +19885,7 @@
       <c r="O215" s="9">
         <v>42773</v>
       </c>
-      <c r="P215" s="19">
+      <c r="P215" s="18">
         <v>7</v>
       </c>
       <c r="Q215" s="2" t="s">
@@ -19917,7 +19916,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="216" spans="1:26">
+    <row r="216" spans="1:26" hidden="1">
       <c r="A216" s="2" t="s">
         <v>656</v>
       </c>
@@ -19963,7 +19962,7 @@
       <c r="O216" s="9">
         <v>42773</v>
       </c>
-      <c r="P216" s="19">
+      <c r="P216" s="18">
         <v>7</v>
       </c>
       <c r="Q216" s="2" t="s">
@@ -19994,7 +19993,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="217" spans="1:26">
+    <row r="217" spans="1:26" hidden="1">
       <c r="A217" s="2" t="s">
         <v>657</v>
       </c>
@@ -20040,7 +20039,7 @@
       <c r="O217" s="9">
         <v>41396</v>
       </c>
-      <c r="P217" s="19">
+      <c r="P217" s="18">
         <v>11</v>
       </c>
       <c r="Q217" s="2" t="s">
@@ -20071,7 +20070,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="218" spans="1:26">
+    <row r="218" spans="1:26" hidden="1">
       <c r="A218" s="2" t="s">
         <v>659</v>
       </c>
@@ -20117,7 +20116,7 @@
       <c r="O218" s="9">
         <v>39384</v>
       </c>
-      <c r="P218" s="19">
+      <c r="P218" s="18">
         <v>17</v>
       </c>
       <c r="Q218" s="2" t="s">
@@ -20148,7 +20147,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="219" spans="1:26">
+    <row r="219" spans="1:26" hidden="1">
       <c r="A219" s="2" t="s">
         <v>663</v>
       </c>
@@ -20194,7 +20193,7 @@
       <c r="O219" s="9">
         <v>43536</v>
       </c>
-      <c r="P219" s="19">
+      <c r="P219" s="18">
         <v>5</v>
       </c>
       <c r="Q219" s="2" t="s">
@@ -20225,7 +20224,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="220" spans="1:26">
+    <row r="220" spans="1:26" hidden="1">
       <c r="A220" s="2" t="s">
         <v>664</v>
       </c>
@@ -20271,7 +20270,7 @@
       <c r="O220" s="9">
         <v>40057</v>
       </c>
-      <c r="P220" s="19">
+      <c r="P220" s="18">
         <v>15</v>
       </c>
       <c r="Q220" s="2" t="s">
@@ -20302,7 +20301,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="221" spans="1:26">
+    <row r="221" spans="1:26" hidden="1">
       <c r="A221" s="2" t="s">
         <v>667</v>
       </c>
@@ -20348,7 +20347,7 @@
       <c r="O221" s="9">
         <v>41041</v>
       </c>
-      <c r="P221" s="19">
+      <c r="P221" s="18">
         <v>12</v>
       </c>
       <c r="Q221" s="2" t="s">
@@ -20379,7 +20378,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="222" spans="1:26">
+    <row r="222" spans="1:26" hidden="1">
       <c r="A222" s="2" t="s">
         <v>669</v>
       </c>
@@ -20425,7 +20424,7 @@
       <c r="O222" s="9">
         <v>42376</v>
       </c>
-      <c r="P222" s="19">
+      <c r="P222" s="18">
         <v>8</v>
       </c>
       <c r="Q222" s="2" t="s">
@@ -20456,7 +20455,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="223" spans="1:26">
+    <row r="223" spans="1:26" hidden="1">
       <c r="A223" s="2" t="s">
         <v>671</v>
       </c>
@@ -20502,7 +20501,7 @@
       <c r="O223" s="9">
         <v>44599</v>
       </c>
-      <c r="P223" s="19">
+      <c r="P223" s="18">
         <v>2</v>
       </c>
       <c r="Q223" s="2" t="s">
@@ -20533,7 +20532,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="224" spans="1:26">
+    <row r="224" spans="1:26" hidden="1">
       <c r="A224" s="2" t="s">
         <v>673</v>
       </c>
@@ -20579,7 +20578,7 @@
       <c r="O224" s="9">
         <v>41825</v>
       </c>
-      <c r="P224" s="19">
+      <c r="P224" s="18">
         <v>10</v>
       </c>
       <c r="Q224" s="2" t="s">
@@ -20610,7 +20609,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="225" spans="1:26">
+    <row r="225" spans="1:26" hidden="1">
       <c r="A225" s="2" t="s">
         <v>676</v>
       </c>
@@ -20656,7 +20655,7 @@
       <c r="O225" s="9">
         <v>43134</v>
       </c>
-      <c r="P225" s="19">
+      <c r="P225" s="18">
         <v>6</v>
       </c>
       <c r="Q225" s="2" t="s">
@@ -20687,7 +20686,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="226" spans="1:26">
+    <row r="226" spans="1:26" hidden="1">
       <c r="A226" s="2" t="s">
         <v>679</v>
       </c>
@@ -20731,7 +20730,7 @@
       <c r="O226" s="9">
         <v>35339</v>
       </c>
-      <c r="P226" s="19">
+      <c r="P226" s="18">
         <v>28</v>
       </c>
       <c r="Q226" s="2" t="s">
@@ -20758,7 +20757,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:26" hidden="1">
       <c r="A227" s="2" t="s">
         <v>681</v>
       </c>
@@ -20802,7 +20801,7 @@
       <c r="O227" s="9">
         <v>44933</v>
       </c>
-      <c r="P227" s="19">
+      <c r="P227" s="18">
         <v>1</v>
       </c>
       <c r="Q227" s="2" t="s">
@@ -20829,7 +20828,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:26" hidden="1">
       <c r="A228" s="2" t="s">
         <v>685</v>
       </c>
@@ -20873,7 +20872,7 @@
       <c r="O228" s="9">
         <v>44157</v>
       </c>
-      <c r="P228" s="19">
+      <c r="P228" s="18">
         <v>4</v>
       </c>
       <c r="Q228" s="2" t="s">
@@ -20900,7 +20899,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="229" spans="1:26">
+    <row r="229" spans="1:26" hidden="1">
       <c r="A229" s="2" t="s">
         <v>689</v>
       </c>
@@ -20944,7 +20943,7 @@
       <c r="O229" s="9">
         <v>44599</v>
       </c>
-      <c r="P229" s="19">
+      <c r="P229" s="18">
         <v>2</v>
       </c>
       <c r="Q229" s="2" t="s">
@@ -20971,7 +20970,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:26" hidden="1">
       <c r="A230" s="2" t="s">
         <v>692</v>
       </c>
@@ -21015,7 +21014,7 @@
       <c r="O230" s="9">
         <v>45362</v>
       </c>
-      <c r="P230" s="19">
+      <c r="P230" s="18">
         <v>0</v>
       </c>
       <c r="Q230" s="2" t="s">
@@ -21042,7 +21041,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="231" spans="1:26">
+    <row r="231" spans="1:26" hidden="1">
       <c r="A231" s="2" t="s">
         <v>695</v>
       </c>
@@ -21086,7 +21085,7 @@
       <c r="O231" s="9">
         <v>45362</v>
       </c>
-      <c r="P231" s="19">
+      <c r="P231" s="18">
         <v>0</v>
       </c>
       <c r="Q231" s="2" t="s">
@@ -21113,7 +21112,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="232" spans="1:26">
+    <row r="232" spans="1:26" hidden="1">
       <c r="A232" s="2" t="s">
         <v>698</v>
       </c>
@@ -21159,7 +21158,7 @@
       <c r="O232" s="9">
         <v>45362</v>
       </c>
-      <c r="P232" s="19">
+      <c r="P232" s="18">
         <v>0</v>
       </c>
       <c r="Q232" s="2" t="s">
@@ -21186,7 +21185,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="233" spans="1:26">
+    <row r="233" spans="1:26" hidden="1">
       <c r="A233" s="2" t="s">
         <v>701</v>
       </c>
@@ -21232,7 +21231,7 @@
       <c r="O233" s="9">
         <v>45363</v>
       </c>
-      <c r="P233" s="19">
+      <c r="P233" s="18">
         <v>0</v>
       </c>
       <c r="Q233" s="2" t="s">
@@ -21259,7 +21258,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="234" spans="1:26">
+    <row r="234" spans="1:26" hidden="1">
       <c r="A234" s="2" t="s">
         <v>701</v>
       </c>
@@ -21305,7 +21304,7 @@
       <c r="O234" s="9">
         <v>45364</v>
       </c>
-      <c r="P234" s="19">
+      <c r="P234" s="18">
         <v>0</v>
       </c>
       <c r="Q234" s="2" t="s">
@@ -21332,7 +21331,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="235" spans="1:26">
+    <row r="235" spans="1:26" hidden="1">
       <c r="A235" s="2" t="s">
         <v>701</v>
       </c>
@@ -21378,7 +21377,7 @@
       <c r="O235" s="9">
         <v>45365</v>
       </c>
-      <c r="P235" s="19">
+      <c r="P235" s="18">
         <v>0</v>
       </c>
       <c r="Q235" s="2" t="s">
@@ -21405,7 +21404,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="236" spans="1:26">
+    <row r="236" spans="1:26" hidden="1">
       <c r="A236" s="2" t="s">
         <v>706</v>
       </c>
@@ -21451,7 +21450,7 @@
       <c r="O236" s="9">
         <v>45366</v>
       </c>
-      <c r="P236" s="19">
+      <c r="P236" s="18">
         <v>0</v>
       </c>
       <c r="Q236" s="2" t="s">
@@ -21524,7 +21523,7 @@
       <c r="O237" s="9">
         <v>44599</v>
       </c>
-      <c r="P237" s="19">
+      <c r="P237" s="18">
         <v>3</v>
       </c>
       <c r="Q237" s="2" t="s">
@@ -21601,7 +21600,7 @@
       <c r="O238" s="9">
         <v>44599</v>
       </c>
-      <c r="P238" s="19">
+      <c r="P238" s="18">
         <v>3</v>
       </c>
       <c r="Q238" s="2" t="s">
@@ -21678,7 +21677,7 @@
       <c r="O239" s="9">
         <v>35728</v>
       </c>
-      <c r="P239" s="19">
+      <c r="P239" s="18">
         <v>28</v>
       </c>
       <c r="Q239" s="2" t="s">
@@ -21755,7 +21754,7 @@
       <c r="O240" s="9">
         <v>43870</v>
       </c>
-      <c r="P240" s="19">
+      <c r="P240" s="18">
         <v>5</v>
       </c>
       <c r="Q240" s="2" t="s">
@@ -21832,7 +21831,7 @@
       <c r="O241" s="9">
         <v>39747</v>
       </c>
-      <c r="P241" s="19">
+      <c r="P241" s="18">
         <v>17</v>
       </c>
       <c r="Q241" s="2" t="s">
@@ -21909,7 +21908,7 @@
       <c r="O242" s="9">
         <v>35728</v>
       </c>
-      <c r="P242" s="19">
+      <c r="P242" s="18">
         <v>28</v>
       </c>
       <c r="Q242" s="2" t="s">
@@ -21986,7 +21985,7 @@
       <c r="O243" s="9">
         <v>38615</v>
       </c>
-      <c r="P243" s="19">
+      <c r="P243" s="18">
         <v>20</v>
       </c>
       <c r="Q243" s="2" t="s">
@@ -22063,7 +22062,7 @@
       <c r="O244" s="9">
         <v>44599</v>
       </c>
-      <c r="P244" s="19">
+      <c r="P244" s="18">
         <v>3</v>
       </c>
       <c r="Q244" s="2" t="s">
@@ -22140,7 +22139,7 @@
       <c r="O245" s="9">
         <v>37193</v>
       </c>
-      <c r="P245" s="19">
+      <c r="P245" s="18">
         <v>24</v>
       </c>
       <c r="Q245" s="2" t="s">
@@ -22217,7 +22216,7 @@
       <c r="O246" s="9">
         <v>41825</v>
       </c>
-      <c r="P246" s="19">
+      <c r="P246" s="18">
         <v>11</v>
       </c>
       <c r="Q246" s="2" t="s">
@@ -22294,7 +22293,7 @@
       <c r="O247" s="9">
         <v>43870</v>
       </c>
-      <c r="P247" s="19">
+      <c r="P247" s="18">
         <v>5</v>
       </c>
       <c r="Q247" s="2" t="s">
@@ -22371,7 +22370,7 @@
       <c r="O248" s="9">
         <v>43870</v>
       </c>
-      <c r="P248" s="19">
+      <c r="P248" s="18">
         <v>5</v>
       </c>
       <c r="Q248" s="2" t="s">
@@ -22448,7 +22447,7 @@
       <c r="O249" s="9">
         <v>43870</v>
       </c>
-      <c r="P249" s="19">
+      <c r="P249" s="18">
         <v>5</v>
       </c>
       <c r="Q249" s="2" t="s">
@@ -22525,7 +22524,7 @@
       <c r="O250" s="9">
         <v>41825</v>
       </c>
-      <c r="P250" s="19">
+      <c r="P250" s="18">
         <v>11</v>
       </c>
       <c r="Q250" s="2" t="s">
@@ -22602,7 +22601,7 @@
       <c r="O251" s="9">
         <v>43870</v>
       </c>
-      <c r="P251" s="19">
+      <c r="P251" s="18">
         <v>5</v>
       </c>
       <c r="Q251" s="2" t="s">
@@ -22679,7 +22678,7 @@
       <c r="O252" s="9">
         <v>42376</v>
       </c>
-      <c r="P252" s="19">
+      <c r="P252" s="18">
         <v>9</v>
       </c>
       <c r="Q252" s="2" t="s">
@@ -22756,7 +22755,7 @@
       <c r="O253" s="9">
         <v>39747</v>
       </c>
-      <c r="P253" s="19">
+      <c r="P253" s="18">
         <v>17</v>
       </c>
       <c r="Q253" s="2" t="s">
@@ -22833,7 +22832,7 @@
       <c r="O254" s="9">
         <v>43536</v>
       </c>
-      <c r="P254" s="19">
+      <c r="P254" s="18">
         <v>6</v>
       </c>
       <c r="Q254" s="2" t="s">
@@ -22910,7 +22909,7 @@
       <c r="O255" s="9">
         <v>36827</v>
       </c>
-      <c r="P255" s="19">
+      <c r="P255" s="18">
         <v>25</v>
       </c>
       <c r="Q255" s="2" t="s">
@@ -22987,7 +22986,7 @@
       <c r="O256" s="9">
         <v>44157</v>
       </c>
-      <c r="P256" s="19">
+      <c r="P256" s="18">
         <v>5</v>
       </c>
       <c r="Q256" s="2" t="s">
@@ -23064,7 +23063,7 @@
       <c r="O257" s="9">
         <v>43870</v>
       </c>
-      <c r="P257" s="19">
+      <c r="P257" s="18">
         <v>5</v>
       </c>
       <c r="Q257" s="2" t="s">
@@ -23141,7 +23140,7 @@
       <c r="O258" s="9">
         <v>42773</v>
       </c>
-      <c r="P258" s="19">
+      <c r="P258" s="18">
         <v>8</v>
       </c>
       <c r="Q258" s="2" t="s">
@@ -23218,7 +23217,7 @@
       <c r="O259" s="9">
         <v>39384</v>
       </c>
-      <c r="P259" s="19">
+      <c r="P259" s="18">
         <v>18</v>
       </c>
       <c r="Q259" s="2" t="s">
@@ -23250,6 +23249,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B259" xr:uid="{920FBCE2-ECBC-114F-95CB-CC30D0CF8C32}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2025"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
